--- a/burnDownChart.xlsx
+++ b/burnDownChart.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\Documents\Cours\M1\S8\Genie_Logiciel\Projet_GL\projet-genie-joliciel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9DA94EA-BDA5-4AEA-95D2-E1494503BAFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D26EB04B-CADC-4E2B-AB74-DC23A9D0ADDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{32EF5719-F42A-4EA2-8401-D72DE17A3C92}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Feuil1!$K$6</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Feuil1!$K$6</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Feuil1!$K$6</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Feuil1!$K$6</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -42,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="31">
   <si>
     <t>Sprint 1</t>
   </si>
@@ -105,6 +99,36 @@
   </si>
   <si>
     <t>US17</t>
+  </si>
+  <si>
+    <t>Nb US Finies</t>
+  </si>
+  <si>
+    <t>Nb US Non Finies</t>
+  </si>
+  <si>
+    <t>US11</t>
+  </si>
+  <si>
+    <t>US12</t>
+  </si>
+  <si>
+    <t>US13</t>
+  </si>
+  <si>
+    <t>US15</t>
+  </si>
+  <si>
+    <t>US16</t>
+  </si>
+  <si>
+    <t>US24</t>
+  </si>
+  <si>
+    <t>US18</t>
+  </si>
+  <si>
+    <t>US19</t>
   </si>
 </sst>
 </file>
@@ -264,7 +288,7 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -301,10 +325,10 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1504,13 +1528,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D33EB59-BB3D-478B-9B94-FCEDCD183E13}">
-  <dimension ref="B2:G18"/>
+  <dimension ref="A2:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -1553,6 +1580,12 @@
       <c r="D4" t="s">
         <v>10</v>
       </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
@@ -1564,6 +1597,12 @@
       <c r="D5" t="s">
         <v>14</v>
       </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
@@ -1575,6 +1614,12 @@
       <c r="D6" t="s">
         <v>15</v>
       </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
@@ -1586,6 +1631,12 @@
       <c r="D7" t="s">
         <v>16</v>
       </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
@@ -1597,6 +1648,12 @@
       <c r="D8" t="s">
         <v>17</v>
       </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
@@ -1605,6 +1662,12 @@
       <c r="D9" t="s">
         <v>18</v>
       </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
@@ -1616,6 +1679,9 @@
       <c r="D10" t="s">
         <v>19</v>
       </c>
+      <c r="F10" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
@@ -1627,6 +1693,9 @@
       <c r="D11" t="s">
         <v>20</v>
       </c>
+      <c r="F11" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
@@ -1635,33 +1704,52 @@
       <c r="C12" t="s">
         <v>13</v>
       </c>
+      <c r="F12" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
       <c r="B17">
         <f>COUNTA(C4:C16)</f>
         <v>8</v>
       </c>
       <c r="D17">
         <f xml:space="preserve"> COUNTA(E4:E16)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F17">
         <f>COUNTA(G4:G16)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
       <c r="B18">
         <f>COUNTA(B4:B16) - COUNTA(C4:C16)</f>
         <v>1</v>
       </c>
       <c r="D18">
         <f>COUNTA(D4:D16) - COUNTA(E4:E16)</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <f>COUNTA(F4:F12) - COUNTA(G4:G12)</f>
-        <v>0</v>
+        <f>COUNTA(F4:F16) - COUNTA(G4:G16)</f>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/burnDownChart.xlsx
+++ b/burnDownChart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\Documents\Cours\M1\S8\Genie_Logiciel\Projet_GL\projet-genie-joliciel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D26EB04B-CADC-4E2B-AB74-DC23A9D0ADDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2AD55FB-0B33-4A7C-9E90-610094B11FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{32EF5719-F42A-4EA2-8401-D72DE17A3C92}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="31">
   <si>
     <t>Sprint 1</t>
   </si>
@@ -291,7 +291,7 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -328,7 +328,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1531,7 +1531,7 @@
   <dimension ref="A2:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1586,6 +1586,9 @@
       <c r="F4" t="s">
         <v>19</v>
       </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
@@ -1595,13 +1598,16 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
@@ -1612,10 +1618,10 @@
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
         <v>23</v>
@@ -1629,10 +1635,10 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F7" t="s">
         <v>24</v>
@@ -1646,10 +1652,10 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F8" t="s">
         <v>25</v>
@@ -1660,10 +1666,10 @@
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F9" t="s">
         <v>19</v>
@@ -1677,7 +1683,7 @@
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F10" t="s">
         <v>26</v>
@@ -1691,7 +1697,7 @@
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F11" t="s">
         <v>27</v>
@@ -1718,6 +1724,11 @@
         <v>30</v>
       </c>
     </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+    </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
@@ -1732,7 +1743,7 @@
       </c>
       <c r="F17">
         <f>COUNTA(G4:G16)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1749,7 +1760,7 @@
       </c>
       <c r="F18">
         <f>COUNTA(F4:F16) - COUNTA(G4:G16)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
